--- a/excel/CONST.xlsx
+++ b/excel/CONST.xlsx
@@ -39,7 +39,7 @@
     <t>竞技场战报保存数量</t>
   </si>
   <si>
-    <t>INT</t>
+    <t>int</t>
   </si>
   <si>
     <t>ARENA_CHALLENGE_COUNT</t>
@@ -66,9 +66,6 @@
     <t>刷新对手向上概率</t>
   </si>
   <si>
-    <t>STRING</t>
-  </si>
-  <si>
     <t>ARENA_RANK_LIST</t>
   </si>
   <si>
@@ -87,7 +84,7 @@
     <t>技能等级属性</t>
   </si>
   <si>
-    <t>FLOAT</t>
+    <t>float</t>
   </si>
   <si>
     <t>AUCTION_BUY_TYPE1</t>
@@ -105,18 +102,21 @@
     <t>BEACON_TOWER_DEF_TIME</t>
   </si>
   <si>
-    <t>1800rewr</t>
-  </si>
-  <si>
     <t>守备持续时间</t>
   </si>
   <si>
     <t>BLACKLIST_GROUP</t>
   </si>
   <si>
+    <t>ggsd</t>
+  </si>
+  <si>
     <t>黑名单</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>BLESS_WATER_REMAIN_TIME</t>
   </si>
   <si>
@@ -129,7 +129,7 @@
     <t>BOX_TYPE1</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>gfhgf</t>
   </si>
   <si>
     <t>自选获得</t>
@@ -172,14 +172,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -637,48 +630,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -688,97 +684,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1137,7 +1130,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1232,18 +1225,18 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
@@ -1251,13 +1244,13 @@
     </row>
     <row r="8" spans="2:5">
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -1265,27 +1258,27 @@
     </row>
     <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>26.3</v>
       </c>
       <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
         <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
@@ -1293,13 +1286,13 @@
     </row>
     <row r="11" spans="2:5">
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
@@ -1307,13 +1300,13 @@
     </row>
     <row r="12" spans="2:5">
       <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <v>1800</v>
+      </c>
+      <c r="D12" t="s">
         <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
@@ -1321,13 +1314,16 @@
     </row>
     <row r="13" spans="2:5">
       <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
         <v>31</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>32</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:5">
@@ -1341,7 +1337,7 @@
         <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="2:5">
@@ -1355,7 +1351,7 @@
         <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="2:5">
@@ -1411,7 +1407,7 @@
         <v>47</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
